--- a/averaged_data.xlsx
+++ b/averaged_data.xlsx
@@ -16,7 +16,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H7">
+    <comment authorId="0" ref="I7">
       <text>
         <t xml:space="preserve">Dette stemmer ikke overens med måledata
 	-Andreas Moe</t>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="254">
   <si>
     <t>Måling ved løypen, ved smistadveien. Før VM</t>
   </si>
@@ -95,6 +95,9 @@
     <t>Måledata</t>
   </si>
   <si>
+    <t>moling_1_før_vm_cutters_munkgata.xlsx</t>
+  </si>
+  <si>
     <t>Før VM - ved løype.xlsx</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>Starttidpunkt</t>
   </si>
   <si>
+    <t>15:12</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
@@ -179,15 +185,18 @@
     <t>Måler (serienummer)</t>
   </si>
   <si>
-    <t>Kanal mot arena</t>
-  </si>
-  <si>
-    <t>Kanal mot annet område</t>
+    <t>Kanal nærmest arena</t>
+  </si>
+  <si>
+    <t>Kanal lengst unna arena</t>
   </si>
   <si>
     <t>Sted</t>
   </si>
   <si>
+    <t>Sentrum</t>
+  </si>
+  <si>
     <t>Løype</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
     <t>Rema 1000</t>
   </si>
   <si>
-    <t>Sentrum</t>
-  </si>
-  <si>
     <t>Kanal 1: LAeq</t>
   </si>
   <si>
@@ -218,16 +224,16 @@
     <t>Kanal 2: LAFmax</t>
   </si>
   <si>
-    <t>LAeq mot arena</t>
-  </si>
-  <si>
-    <t>LAeq mot annet område</t>
-  </si>
-  <si>
-    <t>LAFmax mot arena</t>
-  </si>
-  <si>
-    <t>LAFmax mot annet område</t>
+    <t>LAeq nærmest arena</t>
+  </si>
+  <si>
+    <t>LAeq lengst unna arena</t>
+  </si>
+  <si>
+    <t>LAFmax nærmest arena</t>
+  </si>
+  <si>
+    <t>LAFmax lengst unna arena</t>
   </si>
   <si>
     <t>Annet område</t>
@@ -1097,15 +1103,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="26.75"/>
-    <col customWidth="1" min="2" max="2" width="34.25"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="21.75"/>
-    <col customWidth="1" min="5" max="5" width="27.63"/>
-    <col customWidth="1" min="6" max="6" width="16.13"/>
-    <col customWidth="1" min="7" max="7" width="24.38"/>
-    <col customWidth="1" min="8" max="8" width="31.0"/>
-    <col customWidth="1" min="9" max="9" width="21.38"/>
-    <col customWidth="1" min="11" max="11" width="24.75"/>
+    <col customWidth="1" min="2" max="3" width="34.25"/>
+    <col customWidth="1" min="4" max="4" width="30.25"/>
+    <col customWidth="1" min="5" max="5" width="21.75"/>
+    <col customWidth="1" min="6" max="6" width="27.63"/>
+    <col customWidth="1" min="7" max="7" width="16.13"/>
+    <col customWidth="1" min="8" max="8" width="24.38"/>
+    <col customWidth="1" min="9" max="9" width="31.0"/>
+    <col customWidth="1" min="10" max="10" width="21.38"/>
+    <col customWidth="1" min="12" max="12" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1113,36 +1119,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1150,34 +1159,34 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1204,68 +1213,74 @@
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1292,155 +1307,167 @@
         <v>1.0</v>
       </c>
       <c r="J5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="1">
         <v>2.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.0</v>
       </c>
-      <c r="L5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>45700.0</v>
+        <v>45693.0</v>
       </c>
       <c r="C6" s="5">
         <v>45700.0</v>
       </c>
       <c r="D6" s="5">
+        <v>45700.0</v>
+      </c>
+      <c r="E6" s="5">
         <v>45715.0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>45707.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>45715.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45707.0</v>
       </c>
       <c r="H6" s="5">
         <v>45707.0</v>
       </c>
       <c r="I6" s="5">
+        <v>45707.0</v>
+      </c>
+      <c r="J6" s="5">
         <v>45715.0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>45723.0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>45707.0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>45725.0</v>
       </c>
       <c r="M6" s="5">
         <v>45725.0</v>
       </c>
+      <c r="N6" s="5">
+        <v>45725.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.1</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>0.1</v>
       </c>
       <c r="F8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.1</v>
       </c>
       <c r="H8" s="1">
         <v>0.1</v>
       </c>
       <c r="I8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="1">
         <v>6.0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>-5.0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5.0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>-5.0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>6.0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2.0</v>
       </c>
       <c r="M9" s="1">
         <v>2.0</v>
       </c>
+      <c r="N9" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.5030749E7</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>1.5030749E7</v>
@@ -1449,39 +1476,39 @@
         <v>1.5030749E7</v>
       </c>
       <c r="E10" s="1">
-        <v>1.5030673E7</v>
+        <v>1.5030749E7</v>
       </c>
       <c r="F10" s="1">
         <v>1.5030673E7</v>
       </c>
       <c r="G10" s="1">
+        <v>1.5030673E7</v>
+      </c>
+      <c r="H10" s="1">
         <v>1.5030749E7</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.5030673E7</v>
       </c>
       <c r="I10" s="1">
         <v>1.5030673E7</v>
       </c>
       <c r="J10" s="1">
-        <v>1.5030749E7</v>
+        <v>1.5030673E7</v>
       </c>
       <c r="K10" s="1">
         <v>1.5030749E7</v>
       </c>
       <c r="L10" s="1">
-        <v>1.5030673E7</v>
+        <v>1.5030749E7</v>
       </c>
       <c r="M10" s="1">
         <v>1.5030673E7</v>
       </c>
+      <c r="N10" s="1">
+        <v>1.5030673E7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.0</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>1.0</v>
@@ -1496,10 +1523,10 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
         <v>2.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.0</v>
       </c>
       <c r="I11" s="1">
         <v>1.0</v>
@@ -1507,18 +1534,19 @@
       <c r="J11" s="1">
         <v>1.0</v>
       </c>
+      <c r="K11" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>2.0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>2.0</v>
       </c>
       <c r="E12" s="1">
@@ -1527,11 +1555,11 @@
       <c r="F12" s="1">
         <v>2.0</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="6">
         <v>1.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2.0</v>
       </c>
       <c r="I12" s="1">
         <v>2.0</v>
@@ -1539,476 +1567,499 @@
       <c r="J12" s="1">
         <v>2.0</v>
       </c>
+      <c r="K12" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>58</v>
+      <c r="N13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7">
+        <v>62.879999999999995</v>
+      </c>
+      <c r="C14" s="6">
         <v>47.7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <v>49.4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>55.9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>67.0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>59.6</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>61.6</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>63.3</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>59.6</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>62.0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>68.8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>74.2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>85.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="6">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
         <v>55.2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <v>49.4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>67.7</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>66.1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>52.7</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>66.5</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>52.4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>52.7</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>56.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="6">
+        <v>63</v>
+      </c>
+      <c r="B16" s="7">
+        <v>76.44999999999999</v>
+      </c>
+      <c r="C16" s="6">
         <v>67.8</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>67.4</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>56.3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>82.48500000000001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>75.6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>76.1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>81.6</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>75.6</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>75.2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>79.9</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>100.22</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>106.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="6">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
         <v>76.3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>57.0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>67.6</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>80.8</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>72.1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>78.7</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>65.6</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>72.1</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>69.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" ref="B18:J18" si="1">IF(B11=1,B14,IF(B11=2,B15, ""))</f>
+        <v>65</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:K18" si="1">IF(C11=1,C14,IF(C11=2,C15, ""))</f>
         <v>47.7</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>49.4</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>55.9</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>59.6</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
         <v>63.3</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>59.6</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" ref="B19:J19" si="2">IF(B12=1,B14,IF(B12=2,B15, ""))</f>
+        <v>66</v>
+      </c>
+      <c r="B19" s="7">
+        <v>62.879999999999995</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" ref="C19:K19" si="2">IF(C12=1,C14,IF(C12=2,C15, ""))</f>
         <v>55.2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <f t="shared" si="2"/>
         <v>49.4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
         <v>67.7</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>66.1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>52.7</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>61.6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <f t="shared" si="2"/>
         <v>52.4</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>52.7</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" ref="K19:M19" si="3">K14</f>
+      <c r="L19" s="8">
+        <f t="shared" ref="L19:N19" si="3">L14</f>
         <v>68.8</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <f t="shared" si="3"/>
         <v>74.2</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <f t="shared" si="3"/>
         <v>85.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" ref="B20:J20" si="4">IF(B11=1,B16,IF(B11=2,B17, ""))</f>
-        <v>67.8</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f t="shared" ref="B20:K20" si="4">IF(B11=1,B16,IF(B11=2,B17, ""))</f>
+        <v/>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="4"/>
-        <v>67.4</v>
+        <v>67.8</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
+        <v>67.4</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="4"/>
         <v>56.3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <f t="shared" si="4"/>
         <v>82.485</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="4"/>
         <v>75.6</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="4"/>
         <v>78.7</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <f t="shared" si="4"/>
         <v>81.6</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <f t="shared" si="4"/>
         <v>75.6</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <f t="shared" si="4"/>
         <v>75.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" ref="B21:J21" si="5">IF(B12=1,B16,IF(B12=2,B17, ""))</f>
+        <v>68</v>
+      </c>
+      <c r="B21" s="7">
+        <v>76.44999999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:K21" si="5">IF(C12=1,C16,IF(C12=2,C17, ""))</f>
         <v>76.3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <f t="shared" si="5"/>
         <v>67.6</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="5"/>
         <v>80.8</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f t="shared" si="5"/>
         <v>72.1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f t="shared" si="5"/>
         <v>76.1</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <f t="shared" si="5"/>
         <v>65.6</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <f t="shared" si="5"/>
         <v>72.1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <f t="shared" si="5"/>
         <v>69.1</v>
       </c>
-      <c r="K21" s="8">
-        <f t="shared" ref="K21:M21" si="6">K16</f>
+      <c r="L21" s="8">
+        <f t="shared" ref="L21:N21" si="6">L16</f>
         <v>79.9</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <f t="shared" si="6"/>
         <v>100.22</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <f t="shared" si="6"/>
         <v>106.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="6">
+        <v>75</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
         <v>93.7</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>93.5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>93.5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>93.3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>96.3</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>93.7</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>94.3</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>94.2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>94.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="1">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
         <v>93.9</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>93.8</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>93.4</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>92.4</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>93.4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>93.8</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>94.1</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>94.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="6">
-        <v>22038.0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="6">
         <v>22038.0</v>
       </c>
@@ -2016,763 +2067,798 @@
         <v>22038.0</v>
       </c>
       <c r="E25" s="6">
+        <v>22038.0</v>
+      </c>
+      <c r="F25" s="6">
         <v>23191.0</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>23824.0</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>22038.0</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="6">
-        <v>36009.0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="6">
         <v>36009.0</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="D26" s="6">
+        <v>36009.0</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="1">
+        <v>82</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="1">
         <v>1.5030749E7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6">
-        <v>30651.0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="6">
         <v>30651.0</v>
       </c>
       <c r="D27" s="6">
         <v>30651.0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
+        <v>30651.0</v>
+      </c>
+      <c r="F27" s="1">
         <v>23824.0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>23891.0</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>82</v>
+      <c r="H27" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="1">
+        <v>84</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="1">
         <v>22038.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="1">
-        <v>22888.0</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1">
         <v>22888.0</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>85</v>
+      <c r="D28" s="1">
+        <v>22888.0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="1">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1">
         <v>80.0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>70.0</v>
       </c>
       <c r="D29" s="1">
         <v>70.0</v>
       </c>
       <c r="E29" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="F29" s="1">
         <f>30+70</f>
         <v>100</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>83.0</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>100.0</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>100.0</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="H30" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>94</v>
+      <c r="E31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>97</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33">
-      <c r="F33" s="1" t="s">
-        <v>98</v>
+      <c r="G33" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D34" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="H34" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="D35" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="H35" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D36" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="H36" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="I36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="D37" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="H37" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="D38" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="H38" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="D39" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="H39" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="D40" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="H40" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D41" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="H41" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="13"/>
-      <c r="C42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>168</v>
+      <c r="C42" s="13"/>
+      <c r="D42" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="H42" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>174</v>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="H43" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>180</v>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="H44" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>186</v>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H45" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>192</v>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G46" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="H46" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="6"/>
-      <c r="C47" s="13"/>
-      <c r="E47" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="13"/>
       <c r="F47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G47" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="H47" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="E48" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="D48" s="6"/>
       <c r="F48" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G48" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="H48" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="E49" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="D49" s="6"/>
+      <c r="F49" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="H49" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="J49" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="E50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="D50" s="6"/>
+      <c r="F50" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="H50" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="J50" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>216</v>
+      <c r="D51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>219</v>
+      <c r="D52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>222</v>
+      <c r="D53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>225</v>
+      <c r="D54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>228</v>
+      <c r="D55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>231</v>
+      <c r="D56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="G57" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>233</v>
+      <c r="D57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="G58" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>235</v>
+      <c r="D58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>237</v>
+      <c r="D59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>239</v>
+      <c r="D60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="G61" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>241</v>
+      <c r="D61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="62">
-      <c r="I62" s="1" t="s">
-        <v>242</v>
+      <c r="J62" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="63">
-      <c r="I63" s="1" t="s">
-        <v>243</v>
+      <c r="J63" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="64">
-      <c r="I64" s="1" t="s">
-        <v>244</v>
+      <c r="J64" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65">
-      <c r="I65" s="1" t="s">
-        <v>245</v>
+      <c r="J65" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="66">
-      <c r="I66" s="1" t="s">
-        <v>246</v>
+      <c r="J66" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="67">
-      <c r="I67" s="1" t="s">
-        <v>247</v>
+      <c r="J67" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="68">
-      <c r="I68" s="1" t="s">
-        <v>248</v>
+      <c r="J68" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="69">
-      <c r="I69" s="1" t="s">
-        <v>249</v>
+      <c r="J69" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="70">
-      <c r="I70" s="1" t="s">
-        <v>250</v>
+      <c r="J70" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="71">
-      <c r="I71" s="1" t="s">
-        <v>251</v>
+      <c r="J71" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
-    <hyperlink r:id="rId5" ref="E2"/>
-    <hyperlink r:id="rId6" ref="F2"/>
-    <hyperlink r:id="rId7" ref="G2"/>
-    <hyperlink r:id="rId8" ref="H2"/>
-    <hyperlink r:id="rId9" ref="I2"/>
-    <hyperlink r:id="rId10" ref="J2"/>
-    <hyperlink r:id="rId11" ref="K2"/>
-    <hyperlink r:id="rId12" location="gid=620518537" ref="B3"/>
-    <hyperlink r:id="rId13" location="gid=180946062" ref="C3"/>
-    <hyperlink r:id="rId14" location="gid=1887808011" ref="D3"/>
-    <hyperlink r:id="rId15" location="gid=288837106" ref="E3"/>
-    <hyperlink r:id="rId16" location="gid=1831817808" ref="F3"/>
-    <hyperlink r:id="rId17" location="gid=1754680240" ref="G3"/>
-    <hyperlink r:id="rId18" location="gid=288837106" ref="H3"/>
-    <hyperlink r:id="rId19" location="gid=1831817808" ref="I3"/>
-    <hyperlink r:id="rId20" location="gid=1982241108" ref="J3"/>
-    <hyperlink r:id="rId21" location="gid=1754680240" ref="K3"/>
-    <hyperlink r:id="rId22" location="gid=828259209" ref="L3"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="D2"/>
+    <hyperlink r:id="rId4" ref="E2"/>
+    <hyperlink r:id="rId5" ref="F2"/>
+    <hyperlink r:id="rId6" ref="G2"/>
+    <hyperlink r:id="rId7" ref="H2"/>
+    <hyperlink r:id="rId8" ref="I2"/>
+    <hyperlink r:id="rId9" ref="J2"/>
+    <hyperlink r:id="rId10" ref="K2"/>
+    <hyperlink r:id="rId11" ref="L2"/>
+    <hyperlink r:id="rId12" location="gid=947713641" ref="B3"/>
+    <hyperlink r:id="rId13" location="gid=620518537" ref="C3"/>
+    <hyperlink r:id="rId14" location="gid=180946062" ref="D3"/>
+    <hyperlink r:id="rId15" location="gid=1887808011" ref="E3"/>
+    <hyperlink r:id="rId16" location="gid=288837106" ref="F3"/>
+    <hyperlink r:id="rId17" location="gid=1831817808" ref="G3"/>
+    <hyperlink r:id="rId18" location="gid=1754680240" ref="H3"/>
+    <hyperlink r:id="rId19" location="gid=288837106" ref="I3"/>
+    <hyperlink r:id="rId20" location="gid=1831817808" ref="J3"/>
+    <hyperlink r:id="rId21" location="gid=1982241108" ref="K3"/>
+    <hyperlink r:id="rId22" location="gid=1754680240" ref="L3"/>
     <hyperlink r:id="rId23" location="gid=828259209" ref="M3"/>
+    <hyperlink r:id="rId24" location="gid=828259209" ref="N3"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
-  <legacyDrawing r:id="rId25"/>
+  <drawing r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>